--- a/Crawling/crawling_data/day_genie/day_genie_20220205.xlsx
+++ b/Crawling/crawling_data/day_genie/day_genie_20220205.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="231">
   <si>
     <t>날짜</t>
   </si>
@@ -55,8 +55,7 @@
     <t>다정히 내 이름을 부르면</t>
   </si>
   <si>
-    <t>19금
-                                    abcdefu</t>
+    <t>abcdefu</t>
   </si>
   <si>
     <t>Counting Stars (Feat. Beenzino)</t>
@@ -239,8 +238,7 @@
     <t>At My Worst</t>
   </si>
   <si>
-    <t>19금
-                                    Peaches (Feat. Daniel Caesar &amp; Giveon)</t>
+    <t>Peaches (Feat. Daniel Caesar &amp; Giveon)</t>
   </si>
   <si>
     <t>추억은 만남보다 이별에 남아</t>
@@ -550,9 +548,6 @@
   </si>
   <si>
     <t>다정히 내 이름을 부르면 (경서예지 x 전건호)</t>
-  </si>
-  <si>
-    <t>abcdefu</t>
   </si>
   <si>
     <t>Counting Stars</t>
@@ -1225,7 +1220,7 @@
         <v>113</v>
       </c>
       <c r="E9" t="s">
-        <v>178</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1242,7 +1237,7 @@
         <v>110</v>
       </c>
       <c r="E10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1276,7 +1271,7 @@
         <v>115</v>
       </c>
       <c r="E12" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1344,7 +1339,7 @@
         <v>118</v>
       </c>
       <c r="E16" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1378,7 +1373,7 @@
         <v>119</v>
       </c>
       <c r="E18" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1429,7 +1424,7 @@
         <v>122</v>
       </c>
       <c r="E21" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1480,7 +1475,7 @@
         <v>110</v>
       </c>
       <c r="E24" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1514,7 +1509,7 @@
         <v>122</v>
       </c>
       <c r="E26" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1531,7 +1526,7 @@
         <v>125</v>
       </c>
       <c r="E27" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1566,7 +1561,7 @@
         <v>127</v>
       </c>
       <c r="E29" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1583,7 +1578,7 @@
         <v>118</v>
       </c>
       <c r="E30" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1617,7 +1612,7 @@
         <v>129</v>
       </c>
       <c r="E32" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1634,7 +1629,7 @@
         <v>130</v>
       </c>
       <c r="E33" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1651,7 +1646,7 @@
         <v>118</v>
       </c>
       <c r="E34" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1668,7 +1663,7 @@
         <v>131</v>
       </c>
       <c r="E35" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1719,7 +1714,7 @@
         <v>133</v>
       </c>
       <c r="E38" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1736,7 +1731,7 @@
         <v>134</v>
       </c>
       <c r="E39" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1770,7 +1765,7 @@
         <v>136</v>
       </c>
       <c r="E41" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1787,7 +1782,7 @@
         <v>137</v>
       </c>
       <c r="E42" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1821,7 +1816,7 @@
         <v>135</v>
       </c>
       <c r="E44" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1838,7 +1833,7 @@
         <v>118</v>
       </c>
       <c r="E45" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1855,7 +1850,7 @@
         <v>139</v>
       </c>
       <c r="E46" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1889,7 +1884,7 @@
         <v>141</v>
       </c>
       <c r="E48" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1906,7 +1901,7 @@
         <v>142</v>
       </c>
       <c r="E49" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1923,7 +1918,7 @@
         <v>140</v>
       </c>
       <c r="E50" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1940,7 +1935,7 @@
         <v>109</v>
       </c>
       <c r="E51" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1957,7 +1952,7 @@
         <v>143</v>
       </c>
       <c r="E52" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1991,7 +1986,7 @@
         <v>135</v>
       </c>
       <c r="E54" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -2025,7 +2020,7 @@
         <v>110</v>
       </c>
       <c r="E56" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -2042,7 +2037,7 @@
         <v>118</v>
       </c>
       <c r="E57" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -2059,7 +2054,7 @@
         <v>109</v>
       </c>
       <c r="E58" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -2076,7 +2071,7 @@
         <v>142</v>
       </c>
       <c r="E59" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -2093,7 +2088,7 @@
         <v>145</v>
       </c>
       <c r="E60" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -2110,7 +2105,7 @@
         <v>146</v>
       </c>
       <c r="E61" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -2127,7 +2122,7 @@
         <v>147</v>
       </c>
       <c r="E62" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -2161,7 +2156,7 @@
         <v>149</v>
       </c>
       <c r="E64" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -2178,7 +2173,7 @@
         <v>133</v>
       </c>
       <c r="E65" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -2195,7 +2190,7 @@
         <v>150</v>
       </c>
       <c r="E66" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -2212,7 +2207,7 @@
         <v>118</v>
       </c>
       <c r="E67" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -2229,7 +2224,7 @@
         <v>115</v>
       </c>
       <c r="E68" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -2246,7 +2241,7 @@
         <v>151</v>
       </c>
       <c r="E69" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -2263,7 +2258,7 @@
         <v>145</v>
       </c>
       <c r="E70" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -2297,7 +2292,7 @@
         <v>153</v>
       </c>
       <c r="E72" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -2314,7 +2309,7 @@
         <v>154</v>
       </c>
       <c r="E73" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -2331,7 +2326,7 @@
         <v>155</v>
       </c>
       <c r="E74" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -2365,7 +2360,7 @@
         <v>157</v>
       </c>
       <c r="E76" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -2382,7 +2377,7 @@
         <v>158</v>
       </c>
       <c r="E77" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -2433,7 +2428,7 @@
         <v>160</v>
       </c>
       <c r="E80" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -2450,7 +2445,7 @@
         <v>118</v>
       </c>
       <c r="E81" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -2501,7 +2496,7 @@
         <v>163</v>
       </c>
       <c r="E84" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -2518,7 +2513,7 @@
         <v>164</v>
       </c>
       <c r="E85" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -2603,7 +2598,7 @@
         <v>164</v>
       </c>
       <c r="E90" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -2620,7 +2615,7 @@
         <v>135</v>
       </c>
       <c r="E91" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -2637,7 +2632,7 @@
         <v>129</v>
       </c>
       <c r="E92" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -2671,7 +2666,7 @@
         <v>118</v>
       </c>
       <c r="E94" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -2688,7 +2683,7 @@
         <v>170</v>
       </c>
       <c r="E95" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -2722,7 +2717,7 @@
         <v>172</v>
       </c>
       <c r="E97" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -2756,7 +2751,7 @@
         <v>173</v>
       </c>
       <c r="E99" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -2773,7 +2768,7 @@
         <v>139</v>
       </c>
       <c r="E100" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="101" spans="1:5">
